--- a/feature/testBR/ig/StructureDefinition-sas-practitioner-role-exercice-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-practitioner-role-exercice-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-31T13:30:27+00:00</t>
+    <t>2025-01-31T15:48:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-practitioner-role-exercice-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-practitioner-role-exercice-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-31T15:48:31+00:00</t>
+    <t>2025-01-31T16:36:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-practitioner-role-exercice-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-practitioner-role-exercice-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-31T16:36:09+00:00</t>
+    <t>2025-01-31T16:52:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-practitioner-role-exercice-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-practitioner-role-exercice-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-31T16:52:44+00:00</t>
+    <t>2025-02-03T13:34:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-practitioner-role-exercice-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-practitioner-role-exercice-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-03T13:34:22+00:00</t>
+    <t>2025-02-03T13:56:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-practitioner-role-exercice-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-practitioner-role-exercice-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-03T13:56:30+00:00</t>
+    <t>2025-02-03T16:39:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-practitioner-role-exercice-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-practitioner-role-exercice-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-03T16:39:55+00:00</t>
+    <t>2025-02-03T16:55:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-practitioner-role-exercice-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-practitioner-role-exercice-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-03T16:55:26+00:00</t>
+    <t>2025-02-04T08:34:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-practitioner-role-exercice-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-practitioner-role-exercice-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T08:34:23+00:00</t>
+    <t>2025-02-04T08:52:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-practitioner-role-exercice-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-practitioner-role-exercice-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T08:52:18+00:00</t>
+    <t>2025-02-04T09:36:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-practitioner-role-exercice-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-practitioner-role-exercice-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T09:36:46+00:00</t>
+    <t>2025-02-04T10:02:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-practitioner-role-exercice-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-practitioner-role-exercice-aggregator.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2188" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2225" uniqueCount="422">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T10:02:41+00:00</t>
+    <t>2025-02-04T10:20:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -460,6 +460,12 @@
   </si>
   <si>
     <t>fr-canonical</t>
+  </si>
+  <si>
+    <t>PractitionerRole.meta.profile:sas-practitioner-role-exercice-aggregator</t>
+  </si>
+  <si>
+    <t>sas-practitioner-role-exercice-aggregator</t>
   </si>
   <si>
     <t>PractitionerRole.meta.security</t>
@@ -1630,7 +1636,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN60"/>
+  <dimension ref="A1:AN61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1639,9 +1645,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="46.96875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="65.88671875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="46.96875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="20.0703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="38.87109375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -2943,9 +2949,11 @@
         <v>144</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>145</v>
+      </c>
       <c r="D12" t="s" s="2">
         <v>76</v>
       </c>
@@ -2954,7 +2962,7 @@
         <v>77</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>76</v>
@@ -2966,16 +2974,16 @@
         <v>88</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -2986,7 +2994,7 @@
         <v>76</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>76</v>
+        <v>3</v>
       </c>
       <c r="T12" t="s" s="2">
         <v>76</v>
@@ -3001,13 +3009,13 @@
         <v>76</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>149</v>
+        <v>76</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>150</v>
+        <v>76</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>151</v>
+        <v>76</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>76</v>
@@ -3025,7 +3033,7 @@
         <v>76</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>77</v>
@@ -3054,10 +3062,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3080,16 +3088,16 @@
         <v>88</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3115,13 +3123,13 @@
         <v>76</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>76</v>
@@ -3139,7 +3147,7 @@
         <v>76</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>77</v>
@@ -3168,10 +3176,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3182,28 +3190,28 @@
         <v>77</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="J14" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3229,13 +3237,13 @@
         <v>76</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>76</v>
+        <v>159</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>76</v>
+        <v>160</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>76</v>
+        <v>161</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>76</v>
@@ -3253,13 +3261,13 @@
         <v>76</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>76</v>
@@ -3282,10 +3290,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3302,22 +3310,22 @@
         <v>76</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>167</v>
+        <v>129</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3343,13 +3351,13 @@
         <v>76</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>171</v>
+        <v>76</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>172</v>
+        <v>76</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>173</v>
+        <v>76</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>76</v>
@@ -3367,7 +3375,7 @@
         <v>76</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>77</v>
@@ -3396,14 +3404,14 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>176</v>
+        <v>76</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3422,16 +3430,16 @@
         <v>76</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3457,13 +3465,13 @@
         <v>76</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>76</v>
+        <v>173</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>76</v>
+        <v>174</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>76</v>
+        <v>175</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>76</v>
@@ -3481,7 +3489,7 @@
         <v>76</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>77</v>
@@ -3499,7 +3507,7 @@
         <v>76</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>182</v>
+        <v>76</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>76</v>
@@ -3510,22 +3518,22 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G17" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G17" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="H17" t="s" s="2">
         <v>76</v>
       </c>
@@ -3536,16 +3544,16 @@
         <v>76</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3595,25 +3603,25 @@
         <v>76</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>76</v>
@@ -3624,18 +3632,18 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>76</v>
+        <v>186</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>78</v>
@@ -3650,15 +3658,17 @@
         <v>76</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>108</v>
+        <v>187</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="N18" s="2"/>
+        <v>189</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>190</v>
+      </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>76</v>
@@ -3695,17 +3705,19 @@
         <v>76</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="AC18" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AD18" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>77</v>
@@ -3717,13 +3729,13 @@
         <v>76</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>76</v>
+        <v>192</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>76</v>
@@ -3734,14 +3746,12 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="C19" t="s" s="2">
-        <v>196</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
         <v>76</v>
       </c>
@@ -3762,13 +3772,13 @@
         <v>76</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>197</v>
+        <v>108</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3807,19 +3817,17 @@
         <v>76</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="AC19" s="2"/>
       <c r="AD19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>77</v>
@@ -3828,7 +3836,7 @@
         <v>78</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>200</v>
+        <v>76</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>116</v>
@@ -3848,14 +3856,16 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="C20" s="2"/>
+        <v>193</v>
+      </c>
+      <c r="C20" t="s" s="2">
+        <v>198</v>
+      </c>
       <c r="D20" t="s" s="2">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -3868,26 +3878,22 @@
         <v>76</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="J20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>108</v>
+        <v>199</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>204</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>76</v>
       </c>
@@ -3935,7 +3941,7 @@
         <v>76</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>77</v>
@@ -3944,7 +3950,7 @@
         <v>78</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>76</v>
+        <v>202</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>116</v>
@@ -3953,7 +3959,7 @@
         <v>76</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>190</v>
+        <v>76</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>76</v>
@@ -3964,14 +3970,14 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>76</v>
+        <v>107</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -3984,23 +3990,25 @@
         <v>76</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>207</v>
+        <v>108</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="N21" s="2"/>
+        <v>205</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>111</v>
+      </c>
       <c r="O21" t="s" s="2">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>76</v>
@@ -4049,7 +4057,7 @@
         <v>76</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>77</v>
@@ -4061,27 +4069,27 @@
         <v>76</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>211</v>
+        <v>76</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>212</v>
+        <v>192</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>213</v>
+        <v>76</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>214</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4092,7 +4100,7 @@
         <v>77</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>76</v>
@@ -4104,26 +4112,22 @@
         <v>88</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>219</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="Q22" t="s" s="2">
-        <v>221</v>
-      </c>
+      <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
         <v>76</v>
       </c>
@@ -4167,13 +4171,13 @@
         <v>76</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>76</v>
@@ -4182,24 +4186,24 @@
         <v>99</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>76</v>
+        <v>215</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>224</v>
+        <v>216</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4222,22 +4226,26 @@
         <v>88</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="N23" s="2"/>
+        <v>220</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>221</v>
+      </c>
       <c r="O23" t="s" s="2">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="Q23" s="2"/>
+      <c r="Q23" t="s" s="2">
+        <v>223</v>
+      </c>
       <c r="R23" t="s" s="2">
         <v>76</v>
       </c>
@@ -4281,7 +4289,7 @@
         <v>76</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
@@ -4296,24 +4304,24 @@
         <v>99</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>232</v>
+        <v>76</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>233</v>
+        <v>226</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4336,16 +4344,18 @@
         <v>88</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
+      <c r="O24" t="s" s="2">
+        <v>231</v>
+      </c>
       <c r="P24" t="s" s="2">
         <v>76</v>
       </c>
@@ -4393,7 +4403,7 @@
         <v>76</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
@@ -4408,24 +4418,24 @@
         <v>99</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>76</v>
+        <v>232</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>76</v>
+        <v>234</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>76</v>
+        <v>235</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4448,13 +4458,13 @@
         <v>88</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4505,7 +4515,7 @@
         <v>76</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
@@ -4523,7 +4533,7 @@
         <v>76</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>76</v>
@@ -4534,10 +4544,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4557,16 +4567,16 @@
         <v>76</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>101</v>
+        <v>242</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>102</v>
+        <v>243</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>103</v>
+        <v>244</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4617,7 +4627,7 @@
         <v>76</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>104</v>
+        <v>241</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
@@ -4629,13 +4639,13 @@
         <v>76</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>105</v>
+        <v>245</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>76</v>
@@ -4646,21 +4656,21 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>76</v>
@@ -4672,17 +4682,15 @@
         <v>76</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>111</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>76</v>
@@ -4719,37 +4727,37 @@
         <v>76</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="AD27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>200</v>
+        <v>76</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>190</v>
+        <v>105</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>76</v>
@@ -4760,21 +4768,21 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>76</v>
+        <v>107</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>76</v>
@@ -4783,19 +4791,19 @@
         <v>76</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>247</v>
+        <v>109</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>248</v>
+        <v>110</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>249</v>
+        <v>111</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -4833,37 +4841,37 @@
         <v>76</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="AD28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>250</v>
+        <v>115</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>251</v>
+        <v>202</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>76</v>
@@ -4874,10 +4882,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4900,16 +4908,16 @@
         <v>88</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -4935,13 +4943,13 @@
         <v>76</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>149</v>
+        <v>76</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>256</v>
+        <v>76</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>257</v>
+        <v>76</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>76</v>
@@ -4959,7 +4967,7 @@
         <v>76</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
@@ -4968,7 +4976,7 @@
         <v>87</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>200</v>
+        <v>253</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>99</v>
@@ -4977,7 +4985,7 @@
         <v>76</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>76</v>
@@ -4988,10 +4996,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5014,16 +5022,16 @@
         <v>88</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>207</v>
+        <v>129</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5049,13 +5057,13 @@
         <v>76</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>76</v>
+        <v>151</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>76</v>
+        <v>258</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>76</v>
+        <v>259</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>76</v>
@@ -5073,7 +5081,7 @@
         <v>76</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
@@ -5082,19 +5090,19 @@
         <v>87</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>264</v>
+        <v>76</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>265</v>
+        <v>192</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>266</v>
+        <v>76</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>76</v>
@@ -5102,10 +5110,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5125,18 +5133,20 @@
         <v>76</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>101</v>
+        <v>209</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>102</v>
+        <v>262</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>263</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>264</v>
+      </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>76</v>
@@ -5185,7 +5195,7 @@
         <v>76</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>104</v>
+        <v>265</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
@@ -5194,19 +5204,19 @@
         <v>87</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>76</v>
+        <v>202</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>76</v>
+        <v>266</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>105</v>
+        <v>267</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>76</v>
+        <v>268</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>76</v>
@@ -5214,21 +5224,21 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>76</v>
@@ -5240,17 +5250,15 @@
         <v>76</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>111</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>76</v>
@@ -5287,37 +5295,37 @@
         <v>76</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="AD32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>200</v>
+        <v>76</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>190</v>
+        <v>105</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>76</v>
@@ -5328,46 +5336,44 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>76</v>
+        <v>107</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>167</v>
+        <v>108</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>270</v>
+        <v>109</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>271</v>
+        <v>110</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>273</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>76</v>
       </c>
@@ -5391,49 +5397,49 @@
         <v>76</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>274</v>
+        <v>76</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>275</v>
+        <v>76</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>276</v>
+        <v>76</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="AD33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>277</v>
+        <v>115</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>190</v>
+        <v>76</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>278</v>
+        <v>192</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>76</v>
@@ -5444,10 +5450,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5464,25 +5470,25 @@
         <v>76</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="J34" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>280</v>
+        <v>169</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>76</v>
@@ -5492,7 +5498,7 @@
         <v>76</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>285</v>
+        <v>76</v>
       </c>
       <c r="T34" t="s" s="2">
         <v>76</v>
@@ -5507,13 +5513,13 @@
         <v>76</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>149</v>
+        <v>276</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>76</v>
@@ -5531,7 +5537,7 @@
         <v>76</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
@@ -5540,16 +5546,16 @@
         <v>87</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>289</v>
+        <v>192</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>76</v>
@@ -5560,10 +5566,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5586,19 +5592,19 @@
         <v>88</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>129</v>
+        <v>282</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>76</v>
@@ -5608,10 +5614,10 @@
         <v>76</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>296</v>
+        <v>76</v>
       </c>
       <c r="U35" t="s" s="2">
         <v>76</v>
@@ -5623,13 +5629,13 @@
         <v>76</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>76</v>
+        <v>151</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>76</v>
+        <v>288</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>76</v>
+        <v>289</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>76</v>
@@ -5647,7 +5653,7 @@
         <v>76</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
@@ -5656,19 +5662,19 @@
         <v>87</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>299</v>
+        <v>280</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>300</v>
+        <v>76</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>76</v>
@@ -5676,10 +5682,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5702,18 +5708,20 @@
         <v>88</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>101</v>
+        <v>129</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="O36" s="2"/>
+        <v>295</v>
+      </c>
+      <c r="O36" t="s" s="2">
+        <v>296</v>
+      </c>
       <c r="P36" t="s" s="2">
         <v>76</v>
       </c>
@@ -5722,10 +5730,10 @@
         <v>76</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>76</v>
+        <v>297</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="U36" t="s" s="2">
         <v>76</v>
@@ -5761,7 +5769,7 @@
         <v>76</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
@@ -5770,19 +5778,19 @@
         <v>87</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>76</v>
@@ -5790,10 +5798,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5816,16 +5824,16 @@
         <v>88</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>226</v>
+        <v>101</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -5839,7 +5847,7 @@
         <v>76</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>76</v>
+        <v>307</v>
       </c>
       <c r="U37" t="s" s="2">
         <v>76</v>
@@ -5875,7 +5883,7 @@
         <v>76</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
@@ -5884,19 +5892,19 @@
         <v>87</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>315</v>
+        <v>99</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>76</v>
@@ -5904,10 +5912,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5930,16 +5938,16 @@
         <v>88</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>320</v>
+        <v>228</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -5989,7 +5997,7 @@
         <v>76</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
@@ -5998,19 +6006,19 @@
         <v>87</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>76</v>
@@ -6018,10 +6026,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6044,16 +6052,16 @@
         <v>88</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>101</v>
+        <v>322</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6103,7 +6111,7 @@
         <v>76</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
@@ -6112,19 +6120,19 @@
         <v>87</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>99</v>
+        <v>327</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>76</v>
+        <v>328</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>190</v>
+        <v>329</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>76</v>
+        <v>330</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>76</v>
@@ -6132,10 +6140,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6146,7 +6154,7 @@
         <v>77</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>76</v>
@@ -6158,20 +6166,18 @@
         <v>88</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>280</v>
+        <v>101</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>338</v>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>76</v>
       </c>
@@ -6195,11 +6201,13 @@
         <v>76</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="Y40" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="Y40" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="Z40" t="s" s="2">
-        <v>339</v>
+        <v>76</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>76</v>
@@ -6217,28 +6225,28 @@
         <v>76</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>76</v>
+        <v>202</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>340</v>
+        <v>76</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>341</v>
+        <v>192</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>232</v>
+        <v>76</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>76</v>
@@ -6246,10 +6254,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6272,16 +6280,20 @@
         <v>88</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
+        <v>338</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="O41" t="s" s="2">
+        <v>340</v>
+      </c>
       <c r="P41" t="s" s="2">
         <v>76</v>
       </c>
@@ -6305,11 +6317,11 @@
         <v>76</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>274</v>
+        <v>173</v>
       </c>
       <c r="Y41" s="2"/>
       <c r="Z41" t="s" s="2">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>76</v>
@@ -6327,7 +6339,7 @@
         <v>76</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>77</v>
@@ -6342,13 +6354,13 @@
         <v>99</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>348</v>
+        <v>234</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>76</v>
@@ -6356,10 +6368,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6367,10 +6379,10 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>76</v>
@@ -6382,13 +6394,13 @@
         <v>88</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>350</v>
+        <v>282</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6415,13 +6427,11 @@
         <v>76</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y42" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>276</v>
+      </c>
+      <c r="Y42" s="2"/>
       <c r="Z42" t="s" s="2">
-        <v>76</v>
+        <v>347</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>76</v>
@@ -6439,7 +6449,7 @@
         <v>76</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>77</v>
@@ -6454,24 +6464,24 @@
         <v>99</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>76</v>
+        <v>348</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>355</v>
+        <v>76</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6479,10 +6489,10 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>76</v>
@@ -6491,16 +6501,16 @@
         <v>76</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6551,7 +6561,7 @@
         <v>76</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>77</v>
@@ -6566,24 +6576,24 @@
         <v>99</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>360</v>
+        <v>76</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>76</v>
+        <v>356</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>76</v>
+        <v>357</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6606,18 +6616,16 @@
         <v>76</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="N44" s="2"/>
-      <c r="O44" t="s" s="2">
-        <v>366</v>
-      </c>
+      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>76</v>
       </c>
@@ -6665,7 +6673,7 @@
         <v>76</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>77</v>
@@ -6674,19 +6682,19 @@
         <v>78</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>200</v>
+        <v>76</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>367</v>
+        <v>99</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>370</v>
+        <v>76</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>76</v>
@@ -6694,10 +6702,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6720,18 +6728,18 @@
         <v>76</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="O45" s="2"/>
+        <v>367</v>
+      </c>
+      <c r="N45" s="2"/>
+      <c r="O45" t="s" s="2">
+        <v>368</v>
+      </c>
       <c r="P45" t="s" s="2">
         <v>76</v>
       </c>
@@ -6779,7 +6787,7 @@
         <v>76</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>77</v>
@@ -6788,19 +6796,19 @@
         <v>78</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>76</v>
+        <v>202</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>99</v>
+        <v>369</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>76</v>
+        <v>370</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>76</v>
+        <v>372</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>76</v>
@@ -6808,10 +6816,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6822,7 +6830,7 @@
         <v>77</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>76</v>
@@ -6834,15 +6842,17 @@
         <v>76</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>101</v>
+        <v>374</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>102</v>
+        <v>375</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="N46" s="2"/>
+        <v>376</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>377</v>
+      </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>76</v>
@@ -6891,25 +6901,25 @@
         <v>76</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>104</v>
+        <v>373</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>105</v>
+        <v>378</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>76</v>
@@ -6920,21 +6930,21 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>76</v>
@@ -6946,17 +6956,15 @@
         <v>76</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>111</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="N47" s="2"/>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>76</v>
@@ -7005,19 +7013,19 @@
         <v>76</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>76</v>
@@ -7034,14 +7042,14 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>380</v>
+        <v>107</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -7054,26 +7062,24 @@
         <v>76</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K48" t="s" s="2">
         <v>108</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>381</v>
+        <v>109</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>382</v>
+        <v>110</v>
       </c>
       <c r="N48" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="O48" t="s" s="2">
-        <v>204</v>
-      </c>
+      <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>76</v>
       </c>
@@ -7121,7 +7127,7 @@
         <v>76</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>383</v>
+        <v>115</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>77</v>
@@ -7139,7 +7145,7 @@
         <v>76</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>190</v>
+        <v>105</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>76</v>
@@ -7150,14 +7156,14 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>76</v>
+        <v>382</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -7170,22 +7176,26 @@
         <v>76</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>167</v>
+        <v>108</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="N49" s="2"/>
-      <c r="O49" s="2"/>
+        <v>384</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="O49" t="s" s="2">
+        <v>206</v>
+      </c>
       <c r="P49" t="s" s="2">
         <v>76</v>
       </c>
@@ -7209,13 +7219,13 @@
         <v>76</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>274</v>
+        <v>76</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>387</v>
+        <v>76</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>388</v>
+        <v>76</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>76</v>
@@ -7233,7 +7243,7 @@
         <v>76</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>77</v>
@@ -7245,13 +7255,13 @@
         <v>76</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>376</v>
+        <v>192</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>76</v>
@@ -7262,10 +7272,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7276,7 +7286,7 @@
         <v>77</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>76</v>
@@ -7288,13 +7298,13 @@
         <v>76</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>216</v>
+        <v>169</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7321,13 +7331,13 @@
         <v>76</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>76</v>
+        <v>276</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>76</v>
+        <v>389</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>76</v>
+        <v>390</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>76</v>
@@ -7345,13 +7355,13 @@
         <v>76</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>76</v>
@@ -7363,7 +7373,7 @@
         <v>76</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>76</v>
@@ -7374,10 +7384,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7400,17 +7410,15 @@
         <v>76</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="M51" t="s" s="2">
         <v>393</v>
       </c>
-      <c r="L51" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>396</v>
-      </c>
+      <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>76</v>
@@ -7459,7 +7467,7 @@
         <v>76</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>77</v>
@@ -7477,7 +7485,7 @@
         <v>76</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>76</v>
@@ -7488,10 +7496,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7514,16 +7522,16 @@
         <v>76</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="L52" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="N52" t="s" s="2">
         <v>398</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>396</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -7573,7 +7581,7 @@
         <v>76</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>77</v>
@@ -7591,7 +7599,7 @@
         <v>76</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>76</v>
@@ -7602,10 +7610,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7616,7 +7624,7 @@
         <v>77</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>76</v>
@@ -7628,15 +7636,17 @@
         <v>76</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>372</v>
+        <v>395</v>
       </c>
       <c r="L53" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="M53" t="s" s="2">
         <v>401</v>
       </c>
-      <c r="M53" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="N53" s="2"/>
+      <c r="N53" t="s" s="2">
+        <v>398</v>
+      </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>76</v>
@@ -7685,13 +7695,13 @@
         <v>76</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>76</v>
@@ -7703,7 +7713,7 @@
         <v>76</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>76</v>
@@ -7714,10 +7724,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7728,7 +7738,7 @@
         <v>77</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>76</v>
@@ -7740,13 +7750,13 @@
         <v>76</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>101</v>
+        <v>374</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>102</v>
+        <v>403</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>103</v>
+        <v>404</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -7797,25 +7807,25 @@
         <v>76</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>104</v>
+        <v>402</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>105</v>
+        <v>378</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>76</v>
@@ -7826,21 +7836,21 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>76</v>
@@ -7852,17 +7862,15 @@
         <v>76</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>111</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="N55" s="2"/>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>76</v>
@@ -7911,19 +7919,19 @@
         <v>76</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>76</v>
@@ -7940,14 +7948,14 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>380</v>
+        <v>107</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -7960,26 +7968,24 @@
         <v>76</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K56" t="s" s="2">
         <v>108</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>381</v>
+        <v>109</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>382</v>
+        <v>110</v>
       </c>
       <c r="N56" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="O56" t="s" s="2">
-        <v>204</v>
-      </c>
+      <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>76</v>
       </c>
@@ -8027,7 +8033,7 @@
         <v>76</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>383</v>
+        <v>115</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>77</v>
@@ -8045,7 +8051,7 @@
         <v>76</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>190</v>
+        <v>105</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>76</v>
@@ -8056,42 +8062,46 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>76</v>
+        <v>382</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>407</v>
+        <v>383</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="N57" s="2"/>
-      <c r="O57" s="2"/>
+        <v>384</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="O57" t="s" s="2">
+        <v>206</v>
+      </c>
       <c r="P57" t="s" s="2">
         <v>76</v>
       </c>
@@ -8139,25 +8149,25 @@
         <v>76</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>406</v>
+        <v>385</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>105</v>
+        <v>192</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>76</v>
@@ -8168,10 +8178,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8179,7 +8189,7 @@
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>87</v>
@@ -8194,13 +8204,13 @@
         <v>76</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>226</v>
+        <v>101</v>
       </c>
       <c r="L58" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="M58" t="s" s="2">
         <v>410</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>411</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8251,10 +8261,10 @@
         <v>76</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>87</v>
@@ -8269,7 +8279,7 @@
         <v>76</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>376</v>
+        <v>105</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>76</v>
@@ -8280,10 +8290,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8306,13 +8316,13 @@
         <v>76</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>101</v>
+        <v>228</v>
       </c>
       <c r="L59" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="M59" t="s" s="2">
         <v>413</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>414</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -8363,7 +8373,7 @@
         <v>76</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>77</v>
@@ -8381,7 +8391,7 @@
         <v>76</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>76</v>
@@ -8392,10 +8402,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8406,7 +8416,7 @@
         <v>77</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>76</v>
@@ -8418,18 +8428,16 @@
         <v>76</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="M60" t="s" s="2">
         <v>416</v>
       </c>
-      <c r="L60" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>418</v>
-      </c>
       <c r="N60" s="2"/>
-      <c r="O60" t="s" s="2">
-        <v>419</v>
-      </c>
+      <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>76</v>
       </c>
@@ -8477,13 +8485,13 @@
         <v>76</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>76</v>
@@ -8495,12 +8503,126 @@
         <v>76</v>
       </c>
       <c r="AL60" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN60" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="B61" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="C61" s="2"/>
+      <c r="D61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E61" s="2"/>
+      <c r="F61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="N61" s="2"/>
+      <c r="O61" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="P61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q61" s="2"/>
+      <c r="R61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL61" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AM60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN60" t="s" s="2">
+      <c r="AM61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN61" t="s" s="2">
         <v>76</v>
       </c>
     </row>

--- a/feature/testBR/ig/StructureDefinition-sas-practitioner-role-exercice-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-practitioner-role-exercice-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T10:20:10+00:00</t>
+    <t>2025-02-04T12:30:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-practitioner-role-exercice-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-practitioner-role-exercice-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T12:30:23+00:00</t>
+    <t>2025-02-04T12:59:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -78,7 +78,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Profil de PractitionerRole, dérivé de FrPractitionerRoleExercice, pour le service d'agrégation de créneaux de la plateforme SAS - Commun cas d'usage PS Indiv et CPTS</t>
+    <t>Profil de PractitionerRole, dérivé de FrPractitionerRoleExercice, pour le service d'agrégation de créneaux de la plateforme SAS [Commun cas d'usage PS Indiv et CPTS]</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/feature/testBR/ig/StructureDefinition-sas-practitioner-role-exercice-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-practitioner-role-exercice-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T12:59:01+00:00</t>
+    <t>2025-02-04T15:23:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-practitioner-role-exercice-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-practitioner-role-exercice-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T15:23:22+00:00</t>
+    <t>2025-02-04T16:00:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-practitioner-role-exercice-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-practitioner-role-exercice-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T16:00:41+00:00</t>
+    <t>2025-02-05T17:09:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-practitioner-role-exercice-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-practitioner-role-exercice-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-05T17:09:50+00:00</t>
+    <t>2025-02-06T08:29:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-practitioner-role-exercice-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-practitioner-role-exercice-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-06T08:29:34+00:00</t>
+    <t>2025-02-06T09:04:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-practitioner-role-exercice-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-practitioner-role-exercice-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-06T09:04:57+00:00</t>
+    <t>2025-02-06T09:17:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-practitioner-role-exercice-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-practitioner-role-exercice-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-06T09:17:57+00:00</t>
+    <t>2025-02-06T09:34:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-practitioner-role-exercice-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-practitioner-role-exercice-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-06T09:34:11+00:00</t>
+    <t>2025-02-06T09:41:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-practitioner-role-exercice-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-practitioner-role-exercice-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-06T09:41:46+00:00</t>
+    <t>2025-02-06T10:00:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-practitioner-role-exercice-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-practitioner-role-exercice-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-06T10:00:10+00:00</t>
+    <t>2025-02-06T13:19:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-practitioner-role-exercice-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-practitioner-role-exercice-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-06T13:19:14+00:00</t>
+    <t>2025-02-06T13:39:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-practitioner-role-exercice-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-practitioner-role-exercice-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-06T13:39:47+00:00</t>
+    <t>2025-02-06T14:18:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-practitioner-role-exercice-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-practitioner-role-exercice-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-06T14:18:01+00:00</t>
+    <t>2025-02-06T14:37:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-practitioner-role-exercice-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-practitioner-role-exercice-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-06T14:37:01+00:00</t>
+    <t>2025-02-10T09:11:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-practitioner-role-exercice-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-practitioner-role-exercice-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-10T09:11:56+00:00</t>
+    <t>2025-02-10T10:48:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-practitioner-role-exercice-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-practitioner-role-exercice-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-10T10:48:04+00:00</t>
+    <t>2025-03-12T10:37:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-practitioner-role-exercice-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-practitioner-role-exercice-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-12T10:37:36+00:00</t>
+    <t>2025-03-12T11:02:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-practitioner-role-exercice-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-practitioner-role-exercice-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-12T11:02:50+00:00</t>
+    <t>2025-03-13T08:22:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
